--- a/ThekhaFinder/data/Database.xlsx
+++ b/ThekhaFinder/data/Database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Delhi" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6370" uniqueCount="2062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6955" uniqueCount="2372">
   <si>
     <t>License Type</t>
   </si>
@@ -5748,9 +5748,6 @@
     <t>SCO NO.19, SECTOR 26, CHANDIGARH</t>
   </si>
   <si>
-    <t>VPO MALOYA, U.T. CHANDIGARH</t>
-  </si>
-  <si>
     <t>PLOT NO.102, INDUSTRIAL AREA AND BUSINESS PARK-I, CHANDIGARH</t>
   </si>
   <si>
@@ -5829,9 +5826,6 @@
     <t>MOHAN MEAKIN LIMITED</t>
   </si>
   <si>
-    <t>NATIONAL INDUSTRIAL CORPORATION LIMITED</t>
-  </si>
-  <si>
     <t>NAYYAR ALCOBREV</t>
   </si>
   <si>
@@ -6205,6 +6199,942 @@
   </si>
   <si>
     <t>Sector 44</t>
+  </si>
+  <si>
+    <t>SCO NO. 99, SECTOR-47C, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SHOP KHASRA NO. 16/28, BEHLANA, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCO NO. 69-70, SECTOR-31C, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCO NO. 26-27, SECTOR-9, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SHOP NO. 2067, BURAIL, SECTOR-45, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>INDUSTRIAL AREA AND BUSINESS PARK-II, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>RAILWAY ROAD, DARIYA, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>OLD ROPAR ROAD, NEAR MARKET, MANIMAJRA, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCF NO. 123, SECTOR-28, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>51/52 ROAD, BEYOND (RPF NAKA) KAJHERI, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>2238/18, SHANTI NAGAR, MANIMAJRA, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCO NO. 6870, SECTOR-17A, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>INTERNAL MARKET, SECTOR-23, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>PALSORA CHOWK, SECTOR-54, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>NEAR CTU WORKSHOP, INDUSTRIAL AREA AND BUSINESS PARK-I, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>TIMBER MARKET, BAPU DHAM COLONY, SECTOR-26, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>VILLAGE - DHANAS, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>NEHRU COLONY, SECTOR-53, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SECTOR-49/50, PCA ROAD, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCF NO. 15, MILK COLONY, DHANAS, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SHOP NO. 22, SECTOR-9D, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SHOP NO. 124/3, VILLAGE KAJHERI, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>BAY SHOP NO. 327, SECTOR-38D, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCO NO. 1062-63, SECTOR-22B, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCO NO. 10, SECTOR-17E, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SHOP NO. 153, MAIN ROAD, ATTAWA, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>BOOTH NO. 1-3, SECTOR-17E, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>VILLAGE PALSORA, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCO NO. 14, INDUSTRIAL AREA AND BUSINESS PARK-II, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>15, TPT AREA, SECTOR-26, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCF NO. 20, SECTOR-18D, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCF NO. 11, SECTOR-9, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>Sector 47</t>
+  </si>
+  <si>
+    <t>Behlana</t>
+  </si>
+  <si>
+    <t>Sector 31</t>
+  </si>
+  <si>
+    <t>Sector 45</t>
+  </si>
+  <si>
+    <t>Sector 28</t>
+  </si>
+  <si>
+    <t>Kajheri</t>
+  </si>
+  <si>
+    <t>Sector 23</t>
+  </si>
+  <si>
+    <t>Sector 54</t>
+  </si>
+  <si>
+    <t>Dhanas Village</t>
+  </si>
+  <si>
+    <t>Sector 53</t>
+  </si>
+  <si>
+    <t>Sector 49</t>
+  </si>
+  <si>
+    <t>Kajheri Village</t>
+  </si>
+  <si>
+    <t>Sector 38</t>
+  </si>
+  <si>
+    <t>Sector 22</t>
+  </si>
+  <si>
+    <t>Attawa</t>
+  </si>
+  <si>
+    <t>Palsora Village</t>
+  </si>
+  <si>
+    <t>Sector 18</t>
+  </si>
+  <si>
+    <t>Sector 11</t>
+  </si>
+  <si>
+    <t>4 STAR ENTERPRISES</t>
+  </si>
+  <si>
+    <t>A KLER HOTELS PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>AMANDEEP SANDHAR</t>
+  </si>
+  <si>
+    <t>AMARJEET SINGH RANDHAWA</t>
+  </si>
+  <si>
+    <t>ARVIND SINGLA</t>
+  </si>
+  <si>
+    <t>ASHOKA BEER BAR AND INN. PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>AVRIL TRADERS PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>AZAD SINGH</t>
+  </si>
+  <si>
+    <t>BALWANT PALACE AND COMPANY PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>BHARDWAJ PRINTWELL PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>BHAVNESH BANGA</t>
+  </si>
+  <si>
+    <t>BOPARAI GASES PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>CHADHA MOTOR TRANSPORT COMPANY PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>CHINA AND COMPANY</t>
+  </si>
+  <si>
+    <t>CREATIVE CONSORTS PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>DALJIT SINGH</t>
+  </si>
+  <si>
+    <t>DARBARA SINGH</t>
+  </si>
+  <si>
+    <t>DAYA KRISHAN</t>
+  </si>
+  <si>
+    <t>DEEPAK KUMAR</t>
+  </si>
+  <si>
+    <t>DEEPAK SURI</t>
+  </si>
+  <si>
+    <t>DHARAM CHAND</t>
+  </si>
+  <si>
+    <t>DOABA AIR TRANSPORT PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>DOGRA AND COMPANY</t>
+  </si>
+  <si>
+    <t>ESS DEE AND COMPANY</t>
+  </si>
+  <si>
+    <t>EVERGREEN HOTEL AND RESTAURANT PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>GAGAN DISTILLERS PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>GAGAN WINE TRADE AND FINANCIERS LIMITED</t>
+  </si>
+  <si>
+    <t>GOPAL K. WADHAWA</t>
+  </si>
+  <si>
+    <t>GULSHAN GROVER</t>
+  </si>
+  <si>
+    <t>SHOP NO. 48, SECTOR-15, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SHOP NO. 315-316, SECTOR-35, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCO NO. 8, SECTOR-20D, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCO NO. 185, SECTOR-37C, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCO NO. 156-158, SECTOR-17C, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCO NO. 38, SECTOR-8B, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>NEAR PS, INDIRA COLONY, MANIMAJRA, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>VILLAGE MALOYA, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCF NO. 83, SECTOR-47D, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>VILLAGE SHAHPUR, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCO NO. 222-223, SECTOR-34A, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>VILLAGE MANIMAJRA, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>VILLAGE KAIMBWALA, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCF NO. 19, SECTOR-27C, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCO NO. 48-49, SECTOR-47D, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SHOP NO. 231, SECTOR-34C, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SHOP NO. 1691, DADUMAJRA, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCF NO. 85, SECTOR-24C,CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCO NO. 26-27, SECTOR-34A, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCO NO. 443-444, SECTOR-35C, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SHOP NO. 16, GURU NANAK MARKET, BADHERI, SECTOR-41, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCF NO. 1, SECTOR-27, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCO NO. 194, SECTOR-7C, (INTERNAL MARKET) CHANDIGARH</t>
+  </si>
+  <si>
+    <t>VILLAGE KHUDA ALISHER, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SECTOR-37, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCO NO. 41, SECTOR-20C, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCO NO. 2, SECTOR-41D, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SHOP NO. 704/2, INDUSTRIAL AREA AND BUSINESS PARK-II, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCO NO. 1018-19, SECTOR-22B, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCF NO. 18, SECTOR-16, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCF NO. 44, SECTOR-7, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SHOP NO. 44, SECTOR-41, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCO NO. 360, SECTOR-32D, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SHOP NO. 4287, SECTOR-22D, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>BOOTH NO. 105 AND 112, SECTOR-38,</t>
+  </si>
+  <si>
+    <t>SCO NO. 68-70, SECTOR-17A, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>DARA STUDIO ROAD, SECTOR-55/56, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCO NO. 813, SECTOR-22A, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCO NO. 45, SECTOR-42C, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>VILLAGE RAIPUR KALAN, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SHOP NO. 6, NEAR ATTA CHAKKI, KAJHERI, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCF NO. 20-21, SECTOR-28C, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCO NO. 10, SECTOR-19D, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCF NO. 210, SECTOR-24D, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>BAY SHOP NO. 386-387, SECTOR-44D,</t>
+  </si>
+  <si>
+    <t>GURMEET SINGH</t>
+  </si>
+  <si>
+    <t>GURMIT SINGH/SANJEEV KUMAR GARG</t>
+  </si>
+  <si>
+    <t>GURVINDER SINGH</t>
+  </si>
+  <si>
+    <t>HARJINDER KUMAR/BHUPINDER KUMAR</t>
+  </si>
+  <si>
+    <t>HARJIT SINGH</t>
+  </si>
+  <si>
+    <t>HARPAL SINGH</t>
+  </si>
+  <si>
+    <t>HARPREET SINGH</t>
+  </si>
+  <si>
+    <t>HEM RAJ</t>
+  </si>
+  <si>
+    <t>INDERJIT SINGH</t>
+  </si>
+  <si>
+    <t>INDERJIT SINGH/VARINDER SINGH</t>
+  </si>
+  <si>
+    <t>INDERPREET SINGH CHADHA</t>
+  </si>
+  <si>
+    <t>IQBAL SINGH</t>
+  </si>
+  <si>
+    <t>JANAK RAJ</t>
+  </si>
+  <si>
+    <t>JATINDER KUMAR/UMESH KAPOOR</t>
+  </si>
+  <si>
+    <t>JYA FINANCE AND INVESTMENT COMPANY LIMITED</t>
+  </si>
+  <si>
+    <t>K.L.M. WINE TRADERS</t>
+  </si>
+  <si>
+    <t>K.L.M. WINES</t>
+  </si>
+  <si>
+    <t>K.M. DISTILLERY PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>KAMAL POULTRY AND FEEDS PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>KAMALJIT SINGH</t>
+  </si>
+  <si>
+    <t>KASHMIR SINGH</t>
+  </si>
+  <si>
+    <t>KASHMIR SINGH/SURINDER PAL</t>
+  </si>
+  <si>
+    <t>KESHO RAM/ARUN K. SHARMA</t>
+  </si>
+  <si>
+    <t>KRISHAN LAL NARANG</t>
+  </si>
+  <si>
+    <t>KULDEEP GOYAL AND OTHERS</t>
+  </si>
+  <si>
+    <t>KULWANT SINGH</t>
+  </si>
+  <si>
+    <t>KUMAR BROTHER PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>LABH SINGH</t>
+  </si>
+  <si>
+    <t>MADHU GROVER</t>
+  </si>
+  <si>
+    <t>MALHOTRA AND COMPANY</t>
+  </si>
+  <si>
+    <t>MAN SINGH SAINI</t>
+  </si>
+  <si>
+    <t>MANEET CHOUJAR</t>
+  </si>
+  <si>
+    <t>MANSROVER DEPOSITS AND ADVANCE LIMITED</t>
+  </si>
+  <si>
+    <t>MANSROVER DEPOSITS AND ADVANCE PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>MANSROVER FORGING PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>MANSROVER ROLLER FLOUR MILLS PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>Sector 48</t>
+  </si>
+  <si>
+    <t>Sector 20</t>
+  </si>
+  <si>
+    <t>Sector 8</t>
+  </si>
+  <si>
+    <t>Maloya Village</t>
+  </si>
+  <si>
+    <t>Shahpur Village</t>
+  </si>
+  <si>
+    <t>Sector 34</t>
+  </si>
+  <si>
+    <t>Sector 27</t>
+  </si>
+  <si>
+    <t>Dadumajra</t>
+  </si>
+  <si>
+    <t>Sector 41</t>
+  </si>
+  <si>
+    <t>Khuda Alisher Village</t>
+  </si>
+  <si>
+    <t>Sector 16</t>
+  </si>
+  <si>
+    <t>Sector 32</t>
+  </si>
+  <si>
+    <t>Sector 55</t>
+  </si>
+  <si>
+    <t>Sector 42</t>
+  </si>
+  <si>
+    <t>Raipur Kalan Village</t>
+  </si>
+  <si>
+    <t>SCO O. 831-832, SECTOR-22A, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCO NO. 262, SECTOR-44C, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCO NO. 48, SECTOR-30C, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SHOP NO. 1985, SECTOR-45, BURAIL, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>NEAR POLICE POST, MAULIJAGRAN, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SHOP NO. 294, SECTOR-26, GRAN MARKET, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>19, TRANSPORT AREA, SECTOR-26, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCO NO. 907, NAC, MANIMAJRA, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCO NO. 58, CIRCULAR ROAD, BURAIL, SECTOR-45, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>KALKA ROAD, MANIMAJRA, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>MADAN PURA ROAD, SECTOR-53-54, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SHOP NO. 27, ATTAWA, SECTOR-42, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>PLOT NO. 138, INDUSTRIAL AREA AND BUSINESS PARK-I, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCO NO. 67, SECTOR-40C, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCF NO. 4, SECTOR-27, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCF NO. 9, SECTOR-21C, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCO NO. 62, SECTOR-40C, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCO NO. 1068-69, SECTOR-22B, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>MODERN COMPLEX, MANIMAJRA, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SHOP N. 231B, SECTOR-36D, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCO NO. 261, SECTOR-35D, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCF NO. 1, SECTOR-24, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>BOOTH NO. 326, SECTOR-35, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCO NO. 4, SECTOR-18C, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SECTOR-25 (WEST), CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCO 125-127, MADHYA MARG, SECTOR-17B, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SHOP NO. 149/1, OLD ROPAR ROAD, MANIMAJRA, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCO NO. 2479-80, SECTOR-22C, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>PLOT NO. 681, INDUSTRIAL AREA AND BUSINESS PARK-II, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>VILLAGE PALSORA, (NEAR PH-I, MOHALI), CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SECTOR-49B, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SHOP NO. 14, SECTOR-10, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCO NO. 304, SECTOR-38D, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SHOP NO. 25, CIRCULAR ROAD, BURAIL, SECTOR-45, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SHOP NO. 319, MOTOR MARKET, MANIMAJRA, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCO NO. 58-59, SECTOR-15D, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>BOOTH NO. 329B, SECTOR-35B, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>MIRACLE INF. SYSTEM PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>MOSAIC FABRICS PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>MULTI NET COM PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>MUTUAL PORT FOLIO SERVICES LIMITED</t>
+  </si>
+  <si>
+    <t>NARESH GARG</t>
+  </si>
+  <si>
+    <t>NARINDER SINGH CHADHA/PARMINDER SINGH CHADHA</t>
+  </si>
+  <si>
+    <t>NAVEEN GANDHI</t>
+  </si>
+  <si>
+    <t>NORWEST FISCAL SERVICES PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>OBEROI BANQUETS PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>ONKAR CHAND RANA</t>
+  </si>
+  <si>
+    <t>PARMINDER SINGH</t>
+  </si>
+  <si>
+    <t>PAWAN KUMAR AND SONS</t>
+  </si>
+  <si>
+    <t>PAWAN KUMAR GOYAL</t>
+  </si>
+  <si>
+    <t>PAWAN LIQUOR COMPANY LIMITED</t>
+  </si>
+  <si>
+    <t>PAWAN SINGLA</t>
+  </si>
+  <si>
+    <t>PELO ENTERPRISES PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>PRAKASH CHAND VIJ</t>
+  </si>
+  <si>
+    <t>PRITAM LAL/VISHAMBHAR LAL</t>
+  </si>
+  <si>
+    <t>RADO ENTERPRISES PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>RAJ KUMAR/BAL BHUSHAN</t>
+  </si>
+  <si>
+    <t>RAJEEV GOYAL</t>
+  </si>
+  <si>
+    <t>RAJESH BHARDWAJ/KUSHWANT RAI</t>
+  </si>
+  <si>
+    <t>RAJESH MAHAJAN</t>
+  </si>
+  <si>
+    <t>RAJINDER NAGPAL</t>
+  </si>
+  <si>
+    <t>RAKESH DHEER/SURINDER SINGH</t>
+  </si>
+  <si>
+    <t>RAKESH KUMAR</t>
+  </si>
+  <si>
+    <t>RAKESH SINGLA</t>
+  </si>
+  <si>
+    <t>RAMESHWARA EMPORIUM PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>S.P.G. ENTERPRISES</t>
+  </si>
+  <si>
+    <t>SAI FINLEASE PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>SANDEEP SINGLA</t>
+  </si>
+  <si>
+    <t>Sector 30</t>
+  </si>
+  <si>
+    <t>Sector 40</t>
+  </si>
+  <si>
+    <t>Sector 36</t>
+  </si>
+  <si>
+    <t>Sector 25</t>
+  </si>
+  <si>
+    <t>Sector 15</t>
+  </si>
+  <si>
+    <t>BOOTH NO. 23, MAULIJAGRAN, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCO NO. 88, SECTOR-46C, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>OPP. BHAINSA TIBBA ROAD, MOTOR MARKET, MANIMAJRA, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>BOOTH NO. 28, RAM DARBAR, PHASE-II, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCO NO. 95, SECTOR-17D, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCO NO. 30, SECTOR-11, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCF NO. 268, MOTOR MARKET, MANIMAJRA, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCO NO. 292, SECTOR-32D, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCO NO. 289, GRAIN MARKET, SECTOR-26, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>RAILWAY CROSSING, MANIMAJRA, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>PRESS SITE, INDUSTRIAL AREA AND BUSINESS PARK-I, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SHOP NO. 1059/14, GOBINDPURA, MANIMAJRA, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCO NO. 221, SECTOR-40D, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCF NO. 11, SECTOR-21, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>MW INDUSTRIAL AREA AND BUSINESS PARK-I, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCO NO. 319, SECTOR-40D, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>DIVIDING ROAD 45/46, FACING SECTOR-45/46, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SHOP NO. 2A, SECTOR-7C, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>DIVIDING ROAD, SECTOR-51/52, KAJHERI, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SECTOR-52/FACING, SECTOR-43, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>JAGATPURA ROAD, SECTOR-48, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCF NO. 11-12, SECTOR-19C, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SECTOR-52/61, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCF NO. 11, SECTOR-20C, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>VILLAGE HALLOMAJRA, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCF NO. 51-52, SECTOR-30, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SCO NO. 120-121, SECTOR-8, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>BOOTH NO. 9, SECTOR-17C, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SHOP NO. 1590, CIRCULAR ROAD, BURAIL, SECTOR-45, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>VILLAGE KHUDDA JASSU, CHANDIGARH</t>
+  </si>
+  <si>
+    <t>SANGEETA</t>
+  </si>
+  <si>
+    <t>SANTOKH GILL/PAWAN SHARMA</t>
+  </si>
+  <si>
+    <t>SAT PAL</t>
+  </si>
+  <si>
+    <t>SATYA PAUL</t>
+  </si>
+  <si>
+    <t>SHIVA ENTERPRISES</t>
+  </si>
+  <si>
+    <t>SHIVALIK AUTO PARTS LIMTIED</t>
+  </si>
+  <si>
+    <t>SILVERTONE ENTERPRISES PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>SINGLA TRADERS</t>
+  </si>
+  <si>
+    <t>SINGLA WINE SALES</t>
+  </si>
+  <si>
+    <t>SUKHDEV SINGH</t>
+  </si>
+  <si>
+    <t>SUNIL DHAWAN</t>
+  </si>
+  <si>
+    <t>SUNIL GROVER AND SAMEER GROVER</t>
+  </si>
+  <si>
+    <t>SURESH KUMAR</t>
+  </si>
+  <si>
+    <t>SURYA RESIDENCY PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>T.L. VERMA AND COMPANY PRIVATELIMITED</t>
+  </si>
+  <si>
+    <t>TOP IMAGE ESTATES PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>TRISHUL WOOD PRODUCT PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>TYCOON EVENTS AND PROMOTIONS PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>URMIL GARG</t>
+  </si>
+  <si>
+    <t>VERMA GLASS AND PLYWOOD PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>VIJAY KANSAL/KARAMJIT SINGH</t>
+  </si>
+  <si>
+    <t>VINAYAK DISTILLERIES PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>VINEET KHANNA</t>
+  </si>
+  <si>
+    <t>VINOD KUMAR</t>
+  </si>
+  <si>
+    <t>M.R. WINES</t>
+  </si>
+  <si>
+    <t>YOGESH KUMAR</t>
+  </si>
+  <si>
+    <t>Sector 46</t>
+  </si>
+  <si>
+    <t>Ram Darbar</t>
+  </si>
+  <si>
+    <t>Sector 51</t>
+  </si>
+  <si>
+    <t>Sector 43</t>
+  </si>
+  <si>
+    <t>Sector 52</t>
+  </si>
+  <si>
+    <t>Hallomajra Village</t>
+  </si>
+  <si>
+    <t>Khuda Jassu Village</t>
+  </si>
+  <si>
+    <t>Retail vend of foreign Liquor to the Public for consumption off the premises</t>
   </si>
 </sst>
 </file>
@@ -6555,7 +7485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C452"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -10359,9 +11289,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D106"/>
+  <dimension ref="A1:D252"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10386,100 +11318,100 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1916</v>
+        <v>2106</v>
       </c>
       <c r="B2" t="s">
-        <v>1894</v>
+        <v>2085</v>
       </c>
       <c r="C2" t="s">
-        <v>1920</v>
+        <v>2133</v>
       </c>
       <c r="D2" t="s">
-        <v>1944</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1916</v>
+        <v>2093</v>
       </c>
       <c r="B3" t="s">
-        <v>1907</v>
+        <v>2061</v>
       </c>
       <c r="C3" t="s">
-        <v>1934</v>
+        <v>2111</v>
       </c>
       <c r="D3" t="s">
-        <v>1944</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1916</v>
+        <v>2227</v>
       </c>
       <c r="B4" t="s">
-        <v>1907</v>
+        <v>2155</v>
       </c>
       <c r="C4" t="s">
-        <v>1938</v>
+        <v>2195</v>
       </c>
       <c r="D4" t="s">
-        <v>1944</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="B5" t="s">
-        <v>1914</v>
+        <v>1894</v>
       </c>
       <c r="C5" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D5" t="s">
         <v>1942</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1944</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="B6" t="s">
-        <v>1957</v>
+        <v>1907</v>
       </c>
       <c r="C6" t="s">
-        <v>1948</v>
+        <v>1933</v>
       </c>
       <c r="D6" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="B7" t="s">
-        <v>1965</v>
+        <v>1907</v>
       </c>
       <c r="C7" t="s">
-        <v>1980</v>
+        <v>1936</v>
       </c>
       <c r="D7" t="s">
-        <v>1996</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="B8" t="s">
-        <v>1997</v>
+        <v>1913</v>
       </c>
       <c r="C8" t="s">
-        <v>1998</v>
+        <v>1940</v>
       </c>
       <c r="D8" t="s">
-        <v>2000</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -10487,13 +11419,13 @@
         <v>1915</v>
       </c>
       <c r="B9" t="s">
-        <v>1893</v>
+        <v>1955</v>
       </c>
       <c r="C9" t="s">
-        <v>1919</v>
+        <v>1946</v>
       </c>
       <c r="D9" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -10501,13 +11433,13 @@
         <v>1915</v>
       </c>
       <c r="B10" t="s">
-        <v>1896</v>
+        <v>1963</v>
       </c>
       <c r="C10" t="s">
-        <v>1922</v>
+        <v>1978</v>
       </c>
       <c r="D10" t="s">
-        <v>1944</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -10515,13 +11447,13 @@
         <v>1915</v>
       </c>
       <c r="B11" t="s">
-        <v>1897</v>
+        <v>1995</v>
       </c>
       <c r="C11" t="s">
-        <v>1923</v>
+        <v>1996</v>
       </c>
       <c r="D11" t="s">
-        <v>1944</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -10529,1330 +11461,3377 @@
         <v>1915</v>
       </c>
       <c r="B12" t="s">
-        <v>1898</v>
+        <v>2066</v>
       </c>
       <c r="C12" t="s">
-        <v>1924</v>
+        <v>2116</v>
       </c>
       <c r="D12" t="s">
-        <v>1944</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1915</v>
+        <v>2100</v>
       </c>
       <c r="B13" t="s">
-        <v>1899</v>
+        <v>2076</v>
       </c>
       <c r="C13" t="s">
-        <v>1925</v>
+        <v>2125</v>
       </c>
       <c r="D13" t="s">
-        <v>1944</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1915</v>
+        <v>2100</v>
       </c>
       <c r="B14" t="s">
-        <v>1901</v>
+        <v>2079</v>
       </c>
       <c r="C14" t="s">
-        <v>1927</v>
+        <v>2128</v>
       </c>
       <c r="D14" t="s">
-        <v>1944</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>1915</v>
+        <v>2369</v>
       </c>
       <c r="B15" t="s">
-        <v>1902</v>
+        <v>2332</v>
       </c>
       <c r="C15" t="s">
-        <v>1928</v>
+        <v>2359</v>
       </c>
       <c r="D15" t="s">
-        <v>1944</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B16" t="s">
-        <v>1905</v>
+        <v>1893</v>
       </c>
       <c r="C16" t="s">
-        <v>1931</v>
+        <v>1918</v>
       </c>
       <c r="D16" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B17" t="s">
         <v>1896</v>
       </c>
       <c r="C17" t="s">
-        <v>1932</v>
+        <v>1921</v>
       </c>
       <c r="D17" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B18" t="s">
-        <v>1906</v>
+        <v>1897</v>
       </c>
       <c r="C18" t="s">
-        <v>1933</v>
+        <v>1922</v>
       </c>
       <c r="D18" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B19" t="s">
-        <v>1910</v>
+        <v>1898</v>
       </c>
       <c r="C19" t="s">
-        <v>1937</v>
+        <v>1923</v>
       </c>
       <c r="D19" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B20" t="s">
-        <v>1911</v>
+        <v>1899</v>
       </c>
       <c r="C20" t="s">
-        <v>1939</v>
+        <v>1924</v>
       </c>
       <c r="D20" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B21" t="s">
-        <v>1912</v>
+        <v>1901</v>
       </c>
       <c r="C21" t="s">
-        <v>1940</v>
+        <v>1926</v>
       </c>
       <c r="D21" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B22" t="s">
-        <v>1913</v>
+        <v>1902</v>
       </c>
       <c r="C22" t="s">
-        <v>1941</v>
+        <v>1927</v>
       </c>
       <c r="D22" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B23" t="s">
-        <v>1896</v>
+        <v>1905</v>
       </c>
       <c r="C23" t="s">
-        <v>1943</v>
+        <v>1930</v>
       </c>
       <c r="D23" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B24" t="s">
-        <v>1954</v>
+        <v>1896</v>
       </c>
       <c r="C24" t="s">
-        <v>1945</v>
+        <v>1931</v>
       </c>
       <c r="D24" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B25" t="s">
-        <v>1955</v>
+        <v>1906</v>
       </c>
       <c r="C25" t="s">
-        <v>1946</v>
+        <v>1932</v>
       </c>
       <c r="D25" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B26" t="s">
-        <v>1961</v>
+        <v>1909</v>
       </c>
       <c r="C26" t="s">
-        <v>1952</v>
+        <v>1935</v>
       </c>
       <c r="D26" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B27" t="s">
-        <v>1962</v>
+        <v>1910</v>
       </c>
       <c r="C27" t="s">
-        <v>1953</v>
+        <v>1937</v>
       </c>
       <c r="D27" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B28" t="s">
         <v>1911</v>
       </c>
       <c r="C28" t="s">
-        <v>1979</v>
+        <v>1938</v>
       </c>
       <c r="D28" t="s">
-        <v>1996</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B29" t="s">
-        <v>1966</v>
+        <v>1912</v>
       </c>
       <c r="C29" t="s">
-        <v>1981</v>
+        <v>1939</v>
       </c>
       <c r="D29" t="s">
-        <v>1996</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B30" t="s">
-        <v>1911</v>
+        <v>1896</v>
       </c>
       <c r="C30" t="s">
-        <v>1982</v>
+        <v>1941</v>
       </c>
       <c r="D30" t="s">
-        <v>1996</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B31" t="s">
-        <v>1969</v>
+        <v>1952</v>
       </c>
       <c r="C31" t="s">
-        <v>1985</v>
+        <v>1943</v>
       </c>
       <c r="D31" t="s">
-        <v>1996</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B32" t="s">
-        <v>1970</v>
+        <v>1953</v>
       </c>
       <c r="C32" t="s">
-        <v>1986</v>
+        <v>1944</v>
       </c>
       <c r="D32" t="s">
-        <v>1996</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B33" t="s">
-        <v>1972</v>
+        <v>1959</v>
       </c>
       <c r="C33" t="s">
-        <v>1988</v>
+        <v>1950</v>
       </c>
       <c r="D33" t="s">
-        <v>1996</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B34" t="s">
-        <v>1966</v>
+        <v>1960</v>
       </c>
       <c r="C34" t="s">
-        <v>1990</v>
+        <v>1951</v>
       </c>
       <c r="D34" t="s">
-        <v>1996</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B35" t="s">
-        <v>1973</v>
+        <v>1910</v>
       </c>
       <c r="C35" t="s">
-        <v>1991</v>
+        <v>1977</v>
       </c>
       <c r="D35" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B36" t="s">
-        <v>1975</v>
+        <v>1964</v>
       </c>
       <c r="C36" t="s">
-        <v>1993</v>
+        <v>1979</v>
       </c>
       <c r="D36" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B37" t="s">
-        <v>1970</v>
+        <v>1910</v>
       </c>
       <c r="C37" t="s">
+        <v>1980</v>
+      </c>
+      <c r="D37" t="s">
         <v>1994</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1996</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B38" t="s">
-        <v>1976</v>
+        <v>1967</v>
       </c>
       <c r="C38" t="s">
-        <v>1995</v>
+        <v>1983</v>
       </c>
       <c r="D38" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B39" t="s">
-        <v>2002</v>
+        <v>1968</v>
       </c>
       <c r="C39" t="s">
-        <v>2007</v>
+        <v>1984</v>
       </c>
       <c r="D39" t="s">
-        <v>2000</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B40" t="s">
-        <v>1911</v>
+        <v>1970</v>
       </c>
       <c r="C40" t="s">
-        <v>2009</v>
+        <v>1986</v>
       </c>
       <c r="D40" t="s">
-        <v>2000</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B41" t="s">
-        <v>1912</v>
+        <v>1964</v>
       </c>
       <c r="C41" t="s">
-        <v>1940</v>
+        <v>1988</v>
       </c>
       <c r="D41" t="s">
-        <v>2000</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B42" t="s">
-        <v>2003</v>
+        <v>1971</v>
       </c>
       <c r="C42" t="s">
-        <v>2011</v>
+        <v>1989</v>
       </c>
       <c r="D42" t="s">
-        <v>2000</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B43" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1991</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1968</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1992</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1993</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C46" t="s">
         <v>2005</v>
       </c>
-      <c r="C43" t="s">
-        <v>2014</v>
-      </c>
-      <c r="D43" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>1915</v>
-      </c>
-      <c r="B44" t="s">
-        <v>2016</v>
-      </c>
-      <c r="C44" t="s">
-        <v>2032</v>
-      </c>
-      <c r="D44" t="s">
-        <v>2043</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>1915</v>
-      </c>
-      <c r="B45" t="s">
-        <v>2023</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1940</v>
-      </c>
-      <c r="D45" t="s">
-        <v>2043</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>1915</v>
-      </c>
-      <c r="B46" t="s">
-        <v>2024</v>
-      </c>
-      <c r="C46" t="s">
-        <v>2037</v>
-      </c>
       <c r="D46" t="s">
-        <v>2043</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>1915</v>
+      <c r="A47" s="2" t="s">
+        <v>1914</v>
       </c>
       <c r="B47" t="s">
-        <v>2002</v>
+        <v>1910</v>
       </c>
       <c r="C47" t="s">
-        <v>2041</v>
+        <v>2007</v>
       </c>
       <c r="D47" t="s">
-        <v>2043</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>1915</v>
+      <c r="A48" s="2" t="s">
+        <v>1914</v>
       </c>
       <c r="B48" t="s">
-        <v>2046</v>
+        <v>1911</v>
       </c>
       <c r="C48" t="s">
-        <v>2050</v>
+        <v>1938</v>
       </c>
       <c r="D48" t="s">
-        <v>2051</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>1915</v>
+      <c r="A49" s="2" t="s">
+        <v>1914</v>
       </c>
       <c r="B49" t="s">
-        <v>2047</v>
+        <v>2001</v>
       </c>
       <c r="C49" t="s">
-        <v>2032</v>
+        <v>2009</v>
       </c>
       <c r="D49" t="s">
-        <v>2051</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>1915</v>
+      <c r="A50" s="2" t="s">
+        <v>1914</v>
       </c>
       <c r="B50" t="s">
-        <v>1912</v>
+        <v>2003</v>
       </c>
       <c r="C50" t="s">
-        <v>1940</v>
+        <v>2012</v>
       </c>
       <c r="D50" t="s">
-        <v>2051</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B51" t="s">
-        <v>2054</v>
+        <v>2014</v>
       </c>
       <c r="C51" t="s">
-        <v>2037</v>
+        <v>2030</v>
       </c>
       <c r="D51" t="s">
-        <v>2051</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B52" t="s">
-        <v>2002</v>
+        <v>2021</v>
       </c>
       <c r="C52" t="s">
+        <v>1938</v>
+      </c>
+      <c r="D52" t="s">
         <v>2041</v>
       </c>
-      <c r="D52" t="s">
-        <v>2051</v>
-      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>1964</v>
+      <c r="A53" t="s">
+        <v>1914</v>
       </c>
       <c r="B53" t="s">
-        <v>1903</v>
+        <v>2022</v>
       </c>
       <c r="C53" t="s">
-        <v>1929</v>
+        <v>2035</v>
       </c>
       <c r="D53" t="s">
-        <v>1944</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>1964</v>
+      <c r="A54" t="s">
+        <v>1914</v>
       </c>
       <c r="B54" t="s">
-        <v>1960</v>
+        <v>2000</v>
       </c>
       <c r="C54" t="s">
-        <v>1951</v>
+        <v>2039</v>
       </c>
       <c r="D54" t="s">
-        <v>1944</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>1880</v>
+      <c r="A55" t="s">
+        <v>1914</v>
       </c>
       <c r="B55" t="s">
-        <v>1871</v>
+        <v>2044</v>
       </c>
       <c r="C55" t="s">
-        <v>1887</v>
+        <v>2048</v>
       </c>
       <c r="D55" t="s">
-        <v>1892</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>1880</v>
+      <c r="A56" t="s">
+        <v>1914</v>
       </c>
       <c r="B56" t="s">
-        <v>1974</v>
+        <v>2045</v>
       </c>
       <c r="C56" t="s">
-        <v>1992</v>
+        <v>2030</v>
       </c>
       <c r="D56" t="s">
-        <v>1996</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>1880</v>
+      <c r="A57" t="s">
+        <v>1914</v>
       </c>
       <c r="B57" t="s">
-        <v>2001</v>
+        <v>1911</v>
       </c>
       <c r="C57" t="s">
-        <v>2006</v>
+        <v>1938</v>
       </c>
       <c r="D57" t="s">
-        <v>2000</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1880</v>
+        <v>1914</v>
       </c>
       <c r="B58" t="s">
-        <v>2020</v>
+        <v>2052</v>
       </c>
       <c r="C58" t="s">
-        <v>1886</v>
+        <v>2035</v>
       </c>
       <c r="D58" t="s">
-        <v>2043</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1880</v>
+        <v>1914</v>
       </c>
       <c r="B59" t="s">
-        <v>2053</v>
+        <v>2000</v>
       </c>
       <c r="C59" t="s">
-        <v>1886</v>
+        <v>2039</v>
       </c>
       <c r="D59" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>1978</v>
+        <v>1914</v>
       </c>
       <c r="B60" t="s">
-        <v>1968</v>
+        <v>2065</v>
       </c>
       <c r="C60" t="s">
-        <v>1984</v>
+        <v>2115</v>
       </c>
       <c r="D60" t="s">
-        <v>1996</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>1881</v>
+        <v>1914</v>
       </c>
       <c r="B61" t="s">
-        <v>1873</v>
+        <v>2065</v>
       </c>
       <c r="C61" t="s">
-        <v>1889</v>
+        <v>2121</v>
       </c>
       <c r="D61" t="s">
-        <v>1892</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>1881</v>
+      <c r="A62" s="2" t="s">
+        <v>1914</v>
       </c>
       <c r="B62" t="s">
-        <v>2019</v>
+        <v>2074</v>
       </c>
       <c r="C62" t="s">
-        <v>2035</v>
+        <v>2124</v>
       </c>
       <c r="D62" t="s">
-        <v>2043</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>1881</v>
+      <c r="A63" s="2" t="s">
+        <v>1914</v>
       </c>
       <c r="B63" t="s">
-        <v>2052</v>
+        <v>2088</v>
       </c>
       <c r="C63" t="s">
-        <v>2058</v>
+        <v>2136</v>
       </c>
       <c r="D63" t="s">
-        <v>2051</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>1875</v>
+        <v>1914</v>
       </c>
       <c r="B64" t="s">
-        <v>1866</v>
+        <v>2166</v>
       </c>
       <c r="C64" t="s">
-        <v>1883</v>
+        <v>2206</v>
       </c>
       <c r="D64" t="s">
-        <v>1892</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>1875</v>
+      <c r="A65" s="2" t="s">
+        <v>1914</v>
       </c>
       <c r="B65" t="s">
-        <v>2029</v>
+        <v>2247</v>
       </c>
       <c r="C65" t="s">
-        <v>2031</v>
+        <v>2282</v>
       </c>
       <c r="D65" t="s">
-        <v>2043</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>1875</v>
+      <c r="A66" s="2" t="s">
+        <v>1914</v>
       </c>
       <c r="B66" t="s">
-        <v>2025</v>
+        <v>2263</v>
       </c>
       <c r="C66" t="s">
-        <v>2038</v>
+        <v>2297</v>
       </c>
       <c r="D66" t="s">
-        <v>2043</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>1875</v>
+      <c r="A67" s="2" t="s">
+        <v>1914</v>
       </c>
       <c r="B67" t="s">
-        <v>2045</v>
+        <v>2318</v>
       </c>
       <c r="C67" t="s">
-        <v>2049</v>
+        <v>2345</v>
       </c>
       <c r="D67" t="s">
-        <v>2051</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>1875</v>
+      <c r="A68" s="2" t="s">
+        <v>1914</v>
       </c>
       <c r="B68" t="s">
-        <v>2055</v>
+        <v>2322</v>
       </c>
       <c r="C68" t="s">
-        <v>2038</v>
+        <v>2349</v>
       </c>
       <c r="D68" t="s">
-        <v>2051</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>1878</v>
+        <v>2097</v>
       </c>
       <c r="B69" t="s">
-        <v>1870</v>
+        <v>2069</v>
       </c>
       <c r="C69" t="s">
-        <v>1887</v>
+        <v>2119</v>
       </c>
       <c r="D69" t="s">
-        <v>1892</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>1876</v>
+        <v>2103</v>
       </c>
       <c r="B70" t="s">
-        <v>1867</v>
+        <v>2081</v>
       </c>
       <c r="C70" t="s">
-        <v>1884</v>
+        <v>2130</v>
       </c>
       <c r="D70" t="s">
-        <v>1892</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>1917</v>
+        <v>2103</v>
       </c>
       <c r="B71" t="s">
-        <v>1895</v>
+        <v>2179</v>
       </c>
       <c r="C71" t="s">
-        <v>1921</v>
+        <v>2215</v>
       </c>
       <c r="D71" t="s">
-        <v>1944</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>1917</v>
+        <v>1962</v>
       </c>
       <c r="B72" t="s">
-        <v>1895</v>
+        <v>1903</v>
       </c>
       <c r="C72" t="s">
-        <v>1989</v>
+        <v>1928</v>
       </c>
       <c r="D72" t="s">
-        <v>1996</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>1917</v>
+        <v>1962</v>
       </c>
       <c r="B73" t="s">
-        <v>1895</v>
+        <v>1958</v>
       </c>
       <c r="C73" t="s">
-        <v>2008</v>
+        <v>1949</v>
       </c>
       <c r="D73" t="s">
-        <v>2000</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>1917</v>
+        <v>2229</v>
       </c>
       <c r="B74" t="s">
-        <v>1895</v>
+        <v>2162</v>
       </c>
       <c r="C74" t="s">
-        <v>2010</v>
+        <v>2202</v>
       </c>
       <c r="D74" t="s">
-        <v>2000</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>1917</v>
+        <v>2370</v>
       </c>
       <c r="B75" t="s">
-        <v>1895</v>
+        <v>2337</v>
       </c>
       <c r="C75" t="s">
-        <v>2012</v>
+        <v>2363</v>
       </c>
       <c r="D75" t="s">
-        <v>2000</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>1917</v>
+      <c r="A76" s="2" t="s">
+        <v>2223</v>
       </c>
       <c r="B76" t="s">
-        <v>2026</v>
+        <v>2146</v>
       </c>
       <c r="C76" t="s">
-        <v>2039</v>
+        <v>2189</v>
       </c>
       <c r="D76" t="s">
-        <v>2043</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>1917</v>
+      <c r="A77" s="2" t="s">
+        <v>1880</v>
       </c>
       <c r="B77" t="s">
-        <v>2027</v>
+        <v>1871</v>
       </c>
       <c r="C77" t="s">
-        <v>2040</v>
+        <v>1887</v>
       </c>
       <c r="D77" t="s">
-        <v>2043</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>1917</v>
+      <c r="A78" s="2" t="s">
+        <v>1880</v>
       </c>
       <c r="B78" t="s">
-        <v>2028</v>
+        <v>1972</v>
       </c>
       <c r="C78" t="s">
-        <v>2042</v>
+        <v>1990</v>
       </c>
       <c r="D78" t="s">
-        <v>2043</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="B79" t="s">
-        <v>1874</v>
+        <v>1999</v>
       </c>
       <c r="C79" t="s">
-        <v>1890</v>
+        <v>2004</v>
       </c>
       <c r="D79" t="s">
-        <v>1892</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>1882</v>
+      <c r="A80" t="s">
+        <v>1880</v>
       </c>
       <c r="B80" t="s">
-        <v>1904</v>
+        <v>2018</v>
       </c>
       <c r="C80" t="s">
-        <v>1930</v>
+        <v>1886</v>
       </c>
       <c r="D80" t="s">
-        <v>1944</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>1882</v>
+      <c r="A81" t="s">
+        <v>1880</v>
       </c>
       <c r="B81" t="s">
-        <v>1908</v>
+        <v>2051</v>
       </c>
       <c r="C81" t="s">
-        <v>1935</v>
+        <v>1886</v>
       </c>
       <c r="D81" t="s">
-        <v>1944</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="B82" t="s">
-        <v>1956</v>
+        <v>2067</v>
       </c>
       <c r="C82" t="s">
-        <v>1947</v>
+        <v>2117</v>
       </c>
       <c r="D82" t="s">
-        <v>1944</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="B83" t="s">
-        <v>1908</v>
+        <v>2070</v>
       </c>
       <c r="C83" t="s">
-        <v>1935</v>
+        <v>2120</v>
       </c>
       <c r="D83" t="s">
-        <v>1996</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="B84" t="s">
-        <v>1971</v>
+        <v>2145</v>
       </c>
       <c r="C84" t="s">
-        <v>1987</v>
+        <v>2189</v>
       </c>
       <c r="D84" t="s">
-        <v>1996</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="B85" t="s">
-        <v>2004</v>
+        <v>2150</v>
       </c>
       <c r="C85" t="s">
-        <v>2013</v>
+        <v>2191</v>
       </c>
       <c r="D85" t="s">
-        <v>2000</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>1882</v>
+      <c r="A86" s="2" t="s">
+        <v>1880</v>
       </c>
       <c r="B86" t="s">
-        <v>2017</v>
+        <v>2151</v>
       </c>
       <c r="C86" t="s">
-        <v>2033</v>
+        <v>2191</v>
       </c>
       <c r="D86" t="s">
-        <v>2043</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>1882</v>
+      <c r="A87" s="2" t="s">
+        <v>1880</v>
       </c>
       <c r="B87" t="s">
-        <v>2018</v>
+        <v>2242</v>
       </c>
       <c r="C87" t="s">
-        <v>2034</v>
+        <v>2278</v>
       </c>
       <c r="D87" t="s">
-        <v>2043</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>1882</v>
+      <c r="A88" s="2" t="s">
+        <v>1880</v>
       </c>
       <c r="B88" t="s">
-        <v>2021</v>
+        <v>2244</v>
       </c>
       <c r="C88" t="s">
-        <v>2009</v>
+        <v>1936</v>
       </c>
       <c r="D88" t="s">
-        <v>2043</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>1882</v>
+      <c r="A89" s="2" t="s">
+        <v>1880</v>
       </c>
       <c r="B89" t="s">
-        <v>2022</v>
+        <v>2244</v>
       </c>
       <c r="C89" t="s">
-        <v>2036</v>
+        <v>2285</v>
       </c>
       <c r="D89" t="s">
-        <v>2043</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>1882</v>
+      <c r="A90" s="2" t="s">
+        <v>1880</v>
       </c>
       <c r="B90" t="s">
-        <v>1904</v>
+        <v>2253</v>
       </c>
       <c r="C90" t="s">
-        <v>2033</v>
+        <v>2287</v>
       </c>
       <c r="D90" t="s">
-        <v>2051</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>1882</v>
+      <c r="A91" s="2" t="s">
+        <v>1880</v>
       </c>
       <c r="B91" t="s">
-        <v>2018</v>
+        <v>2261</v>
       </c>
       <c r="C91" t="s">
-        <v>2034</v>
+        <v>2295</v>
       </c>
       <c r="D91" t="s">
-        <v>2051</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>1882</v>
+      <c r="A92" s="2" t="s">
+        <v>1880</v>
       </c>
       <c r="B92" t="s">
-        <v>1956</v>
+        <v>2269</v>
       </c>
       <c r="C92" t="s">
-        <v>2036</v>
+        <v>1889</v>
       </c>
       <c r="D92" t="s">
-        <v>2051</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>1882</v>
+      <c r="A93" s="2" t="s">
+        <v>1880</v>
       </c>
       <c r="B93" t="s">
-        <v>2056</v>
+        <v>2310</v>
       </c>
       <c r="C93" t="s">
-        <v>2059</v>
+        <v>2340</v>
       </c>
       <c r="D93" t="s">
-        <v>2051</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>1918</v>
+        <v>1880</v>
       </c>
       <c r="B94" t="s">
-        <v>1900</v>
+        <v>2314</v>
       </c>
       <c r="C94" t="s">
-        <v>1926</v>
+        <v>2342</v>
       </c>
       <c r="D94" t="s">
-        <v>1944</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>1918</v>
+        <v>1880</v>
       </c>
       <c r="B95" t="s">
-        <v>1959</v>
+        <v>2317</v>
       </c>
       <c r="C95" t="s">
-        <v>1950</v>
+        <v>2345</v>
       </c>
       <c r="D95" t="s">
-        <v>1944</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>1918</v>
+        <v>1880</v>
       </c>
       <c r="B96" t="s">
-        <v>1959</v>
+        <v>2319</v>
       </c>
       <c r="C96" t="s">
-        <v>1999</v>
+        <v>2346</v>
       </c>
       <c r="D96" t="s">
-        <v>2000</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>1918</v>
+      <c r="A97" s="2" t="s">
+        <v>1880</v>
       </c>
       <c r="B97" t="s">
-        <v>1959</v>
+        <v>2150</v>
       </c>
       <c r="C97" t="s">
-        <v>1950</v>
+        <v>2359</v>
       </c>
       <c r="D97" t="s">
-        <v>2051</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B98" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="C98" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="D98" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>1963</v>
+        <v>1976</v>
       </c>
       <c r="B99" t="s">
-        <v>1958</v>
+        <v>2239</v>
       </c>
       <c r="C99" t="s">
-        <v>1949</v>
+        <v>2275</v>
       </c>
       <c r="D99" t="s">
-        <v>1944</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>2061</v>
+      <c r="A100" s="2" t="s">
+        <v>1976</v>
       </c>
       <c r="B100" t="s">
-        <v>2057</v>
+        <v>2308</v>
       </c>
       <c r="C100" t="s">
-        <v>2060</v>
+        <v>2338</v>
       </c>
       <c r="D100" t="s">
-        <v>2051</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>1879</v>
+        <v>2107</v>
       </c>
       <c r="B101" t="s">
-        <v>1869</v>
+        <v>2087</v>
       </c>
       <c r="C101" t="s">
-        <v>1886</v>
+        <v>2135</v>
       </c>
       <c r="D101" t="s">
-        <v>1892</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>1879</v>
+        <v>2107</v>
       </c>
       <c r="B102" t="s">
-        <v>2015</v>
+        <v>2264</v>
       </c>
       <c r="C102" t="s">
-        <v>2030</v>
+        <v>2298</v>
       </c>
       <c r="D102" t="s">
-        <v>2043</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>1879</v>
+      <c r="A103" s="2" t="s">
+        <v>2234</v>
       </c>
       <c r="B103" t="s">
-        <v>2044</v>
+        <v>2178</v>
       </c>
       <c r="C103" t="s">
-        <v>2048</v>
+        <v>2215</v>
       </c>
       <c r="D103" t="s">
-        <v>2051</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>1877</v>
+        <v>2365</v>
       </c>
       <c r="B104" t="s">
-        <v>1868</v>
+        <v>2311</v>
       </c>
       <c r="C104" t="s">
-        <v>1885</v>
+        <v>2341</v>
       </c>
       <c r="D104" t="s">
-        <v>1892</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>1877</v>
+        <v>1881</v>
       </c>
       <c r="B105" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="C105" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="D105" t="s">
         <v>1892</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>1881</v>
+      </c>
       <c r="B106" t="s">
-        <v>1909</v>
+        <v>2017</v>
       </c>
       <c r="C106" t="s">
-        <v>1936</v>
+        <v>2033</v>
       </c>
       <c r="D106" t="s">
-        <v>1944</v>
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B107" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C107" t="s">
+        <v>2056</v>
+      </c>
+      <c r="D107" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B108" t="s">
+        <v>2266</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2299</v>
+      </c>
+      <c r="D108" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B109" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C109" t="s">
+        <v>2138</v>
+      </c>
+      <c r="D109" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>2313</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2342</v>
+      </c>
+      <c r="D110" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>2307</v>
+      </c>
+      <c r="B111" t="s">
+        <v>2270</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2302</v>
+      </c>
+      <c r="D111" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B112" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C112" t="s">
+        <v>2208</v>
+      </c>
+      <c r="D112" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1883</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B114" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2029</v>
+      </c>
+      <c r="D114" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B115" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D115" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B116" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C116" t="s">
+        <v>2047</v>
+      </c>
+      <c r="D116" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B117" t="s">
+        <v>2053</v>
+      </c>
+      <c r="C117" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D117" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B118" t="s">
+        <v>2071</v>
+      </c>
+      <c r="C118" t="s">
+        <v>2122</v>
+      </c>
+      <c r="D118" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B119" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C119" t="s">
+        <v>2032</v>
+      </c>
+      <c r="D119" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B120" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C120" t="s">
+        <v>2134</v>
+      </c>
+      <c r="D120" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B121" t="s">
+        <v>2143</v>
+      </c>
+      <c r="C121" t="s">
+        <v>2187</v>
+      </c>
+      <c r="D121" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B122" t="s">
+        <v>2174</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D122" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B123" t="s">
+        <v>2260</v>
+      </c>
+      <c r="C123" t="s">
+        <v>2294</v>
+      </c>
+      <c r="D123" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B124" t="s">
+        <v>2312</v>
+      </c>
+      <c r="C124" t="s">
+        <v>2341</v>
+      </c>
+      <c r="D124" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B125" t="s">
+        <v>2335</v>
+      </c>
+      <c r="C125" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D125" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>2108</v>
+      </c>
+      <c r="B126" t="s">
+        <v>2090</v>
+      </c>
+      <c r="C126" t="s">
+        <v>2137</v>
+      </c>
+      <c r="D126" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>2108</v>
+      </c>
+      <c r="B127" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C127" t="s">
+        <v>2292</v>
+      </c>
+      <c r="D127" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B129" t="s">
+        <v>2181</v>
+      </c>
+      <c r="C129" t="s">
+        <v>2217</v>
+      </c>
+      <c r="D129" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B130" t="s">
+        <v>2329</v>
+      </c>
+      <c r="C130" t="s">
+        <v>2356</v>
+      </c>
+      <c r="D130" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B131" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C131" t="s">
+        <v>2185</v>
+      </c>
+      <c r="D131" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B132" t="s">
+        <v>2164</v>
+      </c>
+      <c r="C132" t="s">
+        <v>2204</v>
+      </c>
+      <c r="D132" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B133" t="s">
+        <v>2331</v>
+      </c>
+      <c r="C133" t="s">
+        <v>2358</v>
+      </c>
+      <c r="D133" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1884</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B135" t="s">
+        <v>2250</v>
+      </c>
+      <c r="C135" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D135" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B136" t="s">
+        <v>2321</v>
+      </c>
+      <c r="C136" t="s">
+        <v>2348</v>
+      </c>
+      <c r="D136" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B137" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C137" t="s">
+        <v>2132</v>
+      </c>
+      <c r="D137" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B138" t="s">
+        <v>2167</v>
+      </c>
+      <c r="C138" t="s">
+        <v>2207</v>
+      </c>
+      <c r="D138" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B139" t="s">
+        <v>2172</v>
+      </c>
+      <c r="C139" t="s">
+        <v>2212</v>
+      </c>
+      <c r="D139" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B140" t="s">
+        <v>2176</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2213</v>
+      </c>
+      <c r="D140" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B141" t="s">
+        <v>2235</v>
+      </c>
+      <c r="C141" t="s">
+        <v>2219</v>
+      </c>
+      <c r="D141" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B142" t="s">
+        <v>2252</v>
+      </c>
+      <c r="C142" t="s">
+        <v>2287</v>
+      </c>
+      <c r="D142" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B143" t="s">
+        <v>2262</v>
+      </c>
+      <c r="C143" t="s">
+        <v>2296</v>
+      </c>
+      <c r="D143" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B144" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C144" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D144" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1987</v>
+      </c>
+      <c r="D146" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C147" t="s">
+        <v>2006</v>
+      </c>
+      <c r="D147" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C148" t="s">
+        <v>2008</v>
+      </c>
+      <c r="D148" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C149" t="s">
+        <v>2010</v>
+      </c>
+      <c r="D149" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B150" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C150" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D150" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B151" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C151" t="s">
+        <v>2038</v>
+      </c>
+      <c r="D151" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B152" t="s">
+        <v>2026</v>
+      </c>
+      <c r="C152" t="s">
+        <v>2040</v>
+      </c>
+      <c r="D152" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B153" t="s">
+        <v>2156</v>
+      </c>
+      <c r="C153" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D153" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B154" t="s">
+        <v>2182</v>
+      </c>
+      <c r="C154" t="s">
+        <v>2218</v>
+      </c>
+      <c r="D154" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B155" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C155" t="s">
+        <v>2290</v>
+      </c>
+      <c r="D155" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>2306</v>
+      </c>
+      <c r="B156" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C156" t="s">
+        <v>2293</v>
+      </c>
+      <c r="D156" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1890</v>
+      </c>
+      <c r="D157" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1929</v>
+      </c>
+      <c r="D158" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D159" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D160" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D161" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1969</v>
+      </c>
+      <c r="C162" t="s">
+        <v>1985</v>
+      </c>
+      <c r="D162" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B163" t="s">
+        <v>2002</v>
+      </c>
+      <c r="C163" t="s">
+        <v>2011</v>
+      </c>
+      <c r="D163" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B164" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C164" t="s">
+        <v>2031</v>
+      </c>
+      <c r="D164" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B165" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C165" t="s">
+        <v>2032</v>
+      </c>
+      <c r="D165" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B166" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C166" t="s">
+        <v>2007</v>
+      </c>
+      <c r="D166" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B167" t="s">
+        <v>2020</v>
+      </c>
+      <c r="C167" t="s">
+        <v>2034</v>
+      </c>
+      <c r="D167" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C168" t="s">
+        <v>2031</v>
+      </c>
+      <c r="D168" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B169" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C169" t="s">
+        <v>2032</v>
+      </c>
+      <c r="D169" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C170" t="s">
+        <v>2034</v>
+      </c>
+      <c r="D170" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B171" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C171" t="s">
+        <v>2057</v>
+      </c>
+      <c r="D171" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B172" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C172" t="s">
+        <v>2124</v>
+      </c>
+      <c r="D172" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B173" t="s">
+        <v>2089</v>
+      </c>
+      <c r="C173" t="s">
+        <v>2136</v>
+      </c>
+      <c r="D173" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B174" t="s">
+        <v>2240</v>
+      </c>
+      <c r="C174" t="s">
+        <v>2276</v>
+      </c>
+      <c r="D174" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B175" t="s">
+        <v>2241</v>
+      </c>
+      <c r="C175" t="s">
+        <v>2277</v>
+      </c>
+      <c r="D175" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B176" t="s">
+        <v>2316</v>
+      </c>
+      <c r="C176" t="s">
+        <v>2344</v>
+      </c>
+      <c r="D176" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B177" t="s">
+        <v>2152</v>
+      </c>
+      <c r="C177" t="s">
+        <v>2192</v>
+      </c>
+      <c r="D177" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B178" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C178" t="s">
+        <v>2200</v>
+      </c>
+      <c r="D178" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B179" t="s">
+        <v>2249</v>
+      </c>
+      <c r="C179" t="s">
+        <v>2283</v>
+      </c>
+      <c r="D179" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B180" t="s">
+        <v>2068</v>
+      </c>
+      <c r="C180" t="s">
+        <v>2118</v>
+      </c>
+      <c r="D180" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B181" t="s">
+        <v>2180</v>
+      </c>
+      <c r="C181" t="s">
+        <v>2216</v>
+      </c>
+      <c r="D181" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C182" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D182" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C183" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D183" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C184" t="s">
+        <v>1997</v>
+      </c>
+      <c r="D184" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C185" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D185" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>2303</v>
+      </c>
+      <c r="B186" t="s">
+        <v>2237</v>
+      </c>
+      <c r="C186" t="s">
+        <v>2273</v>
+      </c>
+      <c r="D186" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>2303</v>
+      </c>
+      <c r="B187" t="s">
+        <v>2333</v>
+      </c>
+      <c r="C187" t="s">
+        <v>2360</v>
+      </c>
+      <c r="D187" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>2094</v>
+      </c>
+      <c r="B188" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C188" t="s">
+        <v>2112</v>
+      </c>
+      <c r="D188" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B189" t="s">
+        <v>2171</v>
+      </c>
+      <c r="C189" t="s">
+        <v>2211</v>
+      </c>
+      <c r="D189" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B190" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C190" t="s">
+        <v>2343</v>
+      </c>
+      <c r="D190" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B191" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C191" t="s">
+        <v>2190</v>
+      </c>
+      <c r="D191" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B192" t="s">
+        <v>2154</v>
+      </c>
+      <c r="C192" t="s">
+        <v>2194</v>
+      </c>
+      <c r="D192" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B193" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C193" t="s">
+        <v>2197</v>
+      </c>
+      <c r="D193" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C194" t="s">
+        <v>1981</v>
+      </c>
+      <c r="D194" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B195" t="s">
+        <v>2140</v>
+      </c>
+      <c r="C195" t="s">
+        <v>2184</v>
+      </c>
+      <c r="D195" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B196" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C196" t="s">
+        <v>2198</v>
+      </c>
+      <c r="D196" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B197" t="s">
+        <v>2255</v>
+      </c>
+      <c r="C197" t="s">
+        <v>2289</v>
+      </c>
+      <c r="D197" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B198" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C198" t="s">
+        <v>2291</v>
+      </c>
+      <c r="D198" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B199" t="s">
+        <v>2271</v>
+      </c>
+      <c r="C199" t="s">
+        <v>2302</v>
+      </c>
+      <c r="D199" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>2305</v>
+      </c>
+      <c r="B200" t="s">
+        <v>2254</v>
+      </c>
+      <c r="C200" t="s">
+        <v>2288</v>
+      </c>
+      <c r="D200" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1947</v>
+      </c>
+      <c r="D201" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B202" t="s">
+        <v>2142</v>
+      </c>
+      <c r="C202" t="s">
+        <v>2186</v>
+      </c>
+      <c r="D202" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B203" t="s">
+        <v>2163</v>
+      </c>
+      <c r="C203" t="s">
+        <v>2203</v>
+      </c>
+      <c r="D203" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B204" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C204" t="s">
+        <v>2131</v>
+      </c>
+      <c r="D204" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B205" t="s">
+        <v>2173</v>
+      </c>
+      <c r="C205" t="s">
+        <v>2212</v>
+      </c>
+      <c r="D205" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B206" t="s">
+        <v>2267</v>
+      </c>
+      <c r="C206" t="s">
+        <v>2300</v>
+      </c>
+      <c r="D206" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>2304</v>
+      </c>
+      <c r="B207" t="s">
+        <v>2248</v>
+      </c>
+      <c r="C207" t="s">
+        <v>2282</v>
+      </c>
+      <c r="D207" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>2304</v>
+      </c>
+      <c r="B208" t="s">
+        <v>2251</v>
+      </c>
+      <c r="C208" t="s">
+        <v>2286</v>
+      </c>
+      <c r="D208" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>2304</v>
+      </c>
+      <c r="B209" t="s">
+        <v>2320</v>
+      </c>
+      <c r="C209" t="s">
+        <v>2347</v>
+      </c>
+      <c r="D209" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>2304</v>
+      </c>
+      <c r="B210" t="s">
+        <v>2323</v>
+      </c>
+      <c r="C210" t="s">
+        <v>2350</v>
+      </c>
+      <c r="D210" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B211" t="s">
+        <v>2159</v>
+      </c>
+      <c r="C211" t="s">
+        <v>2199</v>
+      </c>
+      <c r="D211" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B212" t="s">
+        <v>2165</v>
+      </c>
+      <c r="C212" t="s">
+        <v>2205</v>
+      </c>
+      <c r="D212" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B213" t="s">
+        <v>2170</v>
+      </c>
+      <c r="C213" t="s">
+        <v>2210</v>
+      </c>
+      <c r="D213" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B214" t="s">
+        <v>2177</v>
+      </c>
+      <c r="C214" t="s">
+        <v>2214</v>
+      </c>
+      <c r="D214" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B215" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C215" t="s">
+        <v>2281</v>
+      </c>
+      <c r="D215" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>2367</v>
+      </c>
+      <c r="B216" t="s">
+        <v>2327</v>
+      </c>
+      <c r="C216" t="s">
+        <v>2354</v>
+      </c>
+      <c r="D216" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B217" t="s">
+        <v>2055</v>
+      </c>
+      <c r="C217" t="s">
+        <v>2058</v>
+      </c>
+      <c r="D217" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B218" t="s">
+        <v>2183</v>
+      </c>
+      <c r="C218" t="s">
+        <v>2219</v>
+      </c>
+      <c r="D218" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B219" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C219" t="s">
+        <v>2272</v>
+      </c>
+      <c r="D219" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B220" t="s">
+        <v>2064</v>
+      </c>
+      <c r="C220" t="s">
+        <v>2114</v>
+      </c>
+      <c r="D220" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B221" t="s">
+        <v>2238</v>
+      </c>
+      <c r="C221" t="s">
+        <v>2274</v>
+      </c>
+      <c r="D221" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B222" t="s">
+        <v>2243</v>
+      </c>
+      <c r="C222" t="s">
+        <v>2279</v>
+      </c>
+      <c r="D222" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B223" t="s">
+        <v>2268</v>
+      </c>
+      <c r="C223" t="s">
+        <v>2301</v>
+      </c>
+      <c r="D223" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B224" t="s">
+        <v>2324</v>
+      </c>
+      <c r="C224" t="s">
+        <v>2351</v>
+      </c>
+      <c r="D224" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B225" t="s">
+        <v>2336</v>
+      </c>
+      <c r="C225" t="s">
+        <v>2362</v>
+      </c>
+      <c r="D225" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
+        <v>2364</v>
+      </c>
+      <c r="B226" t="s">
+        <v>2309</v>
+      </c>
+      <c r="C226" t="s">
+        <v>2339</v>
+      </c>
+      <c r="D226" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B227" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C227" t="s">
+        <v>2110</v>
+      </c>
+      <c r="D227" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B228" t="s">
+        <v>2147</v>
+      </c>
+      <c r="C228" t="s">
+        <v>2189</v>
+      </c>
+      <c r="D228" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B229" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C229" t="s">
+        <v>2193</v>
+      </c>
+      <c r="D229" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B230" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C230" t="s">
+        <v>2138</v>
+      </c>
+      <c r="D230" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B231" t="s">
+        <v>2328</v>
+      </c>
+      <c r="C231" t="s">
+        <v>2355</v>
+      </c>
+      <c r="D231" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B232" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C232" t="s">
+        <v>2127</v>
+      </c>
+      <c r="D232" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B233" t="s">
+        <v>2265</v>
+      </c>
+      <c r="C233" t="s">
+        <v>2299</v>
+      </c>
+      <c r="D233" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
+        <v>2366</v>
+      </c>
+      <c r="B234" t="s">
+        <v>2326</v>
+      </c>
+      <c r="C234" t="s">
+        <v>2353</v>
+      </c>
+      <c r="D234" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
+        <v>2368</v>
+      </c>
+      <c r="B235" t="s">
+        <v>2330</v>
+      </c>
+      <c r="C235" t="s">
+        <v>2357</v>
+      </c>
+      <c r="D235" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B236" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C236" t="s">
+        <v>2126</v>
+      </c>
+      <c r="D236" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B237" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C237" t="s">
+        <v>2280</v>
+      </c>
+      <c r="D237" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B238" t="s">
+        <v>2073</v>
+      </c>
+      <c r="C238" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D238" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B239" t="s">
+        <v>2175</v>
+      </c>
+      <c r="C239" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D239" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C240" t="s">
+        <v>1886</v>
+      </c>
+      <c r="D240" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="2" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B241" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C241" t="s">
+        <v>2028</v>
+      </c>
+      <c r="D241" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B242" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C242" t="s">
+        <v>2046</v>
+      </c>
+      <c r="D242" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="2" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B243" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C243" t="s">
+        <v>2201</v>
+      </c>
+      <c r="D243" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="2" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B244" t="s">
+        <v>2169</v>
+      </c>
+      <c r="C244" t="s">
+        <v>2209</v>
+      </c>
+      <c r="D244" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="2" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B245" t="s">
+        <v>2325</v>
+      </c>
+      <c r="C245" t="s">
+        <v>2352</v>
+      </c>
+      <c r="D245" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
+        <v>2222</v>
+      </c>
+      <c r="B246" t="s">
+        <v>2144</v>
+      </c>
+      <c r="C246" t="s">
+        <v>2188</v>
+      </c>
+      <c r="D246" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="2" t="s">
+        <v>2222</v>
+      </c>
+      <c r="B247" t="s">
+        <v>2334</v>
+      </c>
+      <c r="C247" t="s">
+        <v>2360</v>
+      </c>
+      <c r="D247" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="2" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C248" t="s">
+        <v>1885</v>
+      </c>
+      <c r="D248" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="2" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C249" t="s">
+        <v>1888</v>
+      </c>
+      <c r="D249" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B250" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C250" t="s">
+        <v>2113</v>
+      </c>
+      <c r="D250" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B251" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C251" t="s">
+        <v>2129</v>
+      </c>
+      <c r="D251" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="2" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B252" t="s">
+        <v>2148</v>
+      </c>
+      <c r="C252" t="s">
+        <v>2190</v>
+      </c>
+      <c r="D252" t="s">
+        <v>2371</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D106">
+  <sortState ref="A2:D252">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
